--- a/output/time dependant variables/df_time_dependent_variable_values0.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values0.xlsx
@@ -19,118 +19,118 @@
     <t>TimeStep</t>
   </si>
   <si>
+    <t>demand1_op_cost</t>
+  </si>
+  <si>
     <t>demand1_inv_cost</t>
   </si>
   <si>
-    <t>demand1_op_cost</t>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
   </si>
   <si>
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
     <t>net1_inv_cost</t>
   </si>
   <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
   </si>
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
+    <t>pv1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>pv1_inv_cost</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
   </si>
   <si>
     <t>bat1_K_ch</t>
   </si>
   <si>
-    <t>bat1_SOC</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>P_to_bat1</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>bat1_op_cost</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_integer</t>
+    <t>total_sell</t>
   </si>
   <si>
     <t>total_buy</t>
   </si>
   <si>
     <t>total_operation_cost</t>
-  </si>
-  <si>
-    <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,58 +630,58 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>166.4471009578606</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>192.4859793020224</v>
       </c>
       <c r="F2">
+        <v>177.0871009578606</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>98.16784944403143</v>
+      </c>
+      <c r="I2">
         <v>288.7289689530336</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>173.4859793020224</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>173.4859793020224</v>
+        <v>86.61869068591008</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>192.4859793020224</v>
+      </c>
+      <c r="P2">
         <v>288.7289689530336</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>78.06869068591008</v>
-      </c>
-      <c r="P2">
-        <v>98.16784944403143</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -690,55 +690,55 @@
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>-0</v>
+      </c>
+      <c r="AE2">
+        <v>65000</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1.110223024625157E-16</v>
       </c>
-      <c r="Y2">
-        <v>0.2999999999999999</v>
-      </c>
-      <c r="Z2">
-        <v>65000</v>
-      </c>
-      <c r="AA2">
-        <v>3.166666666666668E-06</v>
-      </c>
-      <c r="AB2">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>19.00000000000001</v>
-      </c>
-      <c r="AI2">
-        <v>0.05277777777777779</v>
-      </c>
-      <c r="AJ2">
-        <v>-0</v>
-      </c>
       <c r="AK2">
-        <v>176.2365401299415</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>184.7865401299415</v>
+      </c>
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
-        <v>166.4998787356384</v>
+        <v>177.0871009578606</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -752,44 +752,44 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>138.6120356006453</v>
+      </c>
+      <c r="F3">
         <v>127.5230727525937</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>74.85049922434845</v>
+      </c>
+      <c r="I3">
         <v>207.9180534009679</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>58.21705495227102</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>138.6120356006453</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>138.6120356006453</v>
-      </c>
-      <c r="L3">
+      <c r="P3">
         <v>207.9180534009679</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>58.21705495227102</v>
-      </c>
-      <c r="P3">
-        <v>74.85049922434845</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -812,52 +812,52 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y3">
-        <v>0.2999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.166666666666668E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9999968333333333</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>133.0675541766195</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
       </c>
       <c r="AN3">
         <v>127.5230727525937</v>
@@ -874,44 +874,44 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>111.0477035032966</v>
+      </c>
+      <c r="F4">
         <v>102.1638872230329</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>51.63718212903292</v>
+      </c>
+      <c r="I4">
         <v>166.5715552549449</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>48.86098954145051</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>111.0477035032966</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>111.0477035032966</v>
-      </c>
-      <c r="L4">
+      <c r="P4">
         <v>166.5715552549449</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>48.86098954145051</v>
-      </c>
-      <c r="P4">
-        <v>51.63718212903292</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -934,52 +934,52 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.166666666666668E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9999968333333333</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>100.4981716704834</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
       </c>
       <c r="AN4">
         <v>102.1638872230329</v>
@@ -996,44 +996,44 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>37.27453831697225</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>82.3853677358394</v>
       </c>
       <c r="F5">
+        <v>82.63453831697225</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>59.31044012546605</v>
+      </c>
+      <c r="I5">
         <v>152.0780516037591</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.385367735839395</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.385367735839395</v>
+        <v>37.89726915848613</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>82.3853677358394</v>
+      </c>
+      <c r="P5">
         <v>152.0780516037591</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.6372691584861219</v>
-      </c>
-      <c r="P5">
-        <v>59.31044012546605</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1056,55 +1056,55 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.5</v>
+        <v>19</v>
       </c>
       <c r="AA5">
-        <v>0.1</v>
+        <v>3.166666666666667E-06</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AH5">
-        <v>100</v>
+        <v>0.9999968333333333</v>
       </c>
       <c r="AI5">
-        <v>0.2777777777777777</v>
+        <v>0.05277777777777776</v>
       </c>
       <c r="AJ5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>59.94770928395217</v>
+        <v>0</v>
       </c>
       <c r="AL5">
+        <v>97.20770928395217</v>
+      </c>
+      <c r="AM5">
         <v>2</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
       <c r="AN5">
-        <v>37.55231609475003</v>
+        <v>82.68731609475003</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1118,44 +1118,44 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>77.16277140342507</v>
+        <v>73.68258451606111</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>95.4377950037229</v>
       </c>
       <c r="F6">
+        <v>129.0650187324193</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>50.10484237695452</v>
+      </c>
+      <c r="I6">
         <v>143.1566925055843</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>76.4377950037229</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>76.4377950037229</v>
+        <v>67.64815180791361</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>169.120379519784</v>
+      </c>
+      <c r="P6">
         <v>143.1566925055843</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>30.57511800148916</v>
-      </c>
-      <c r="P6">
-        <v>50.10484237695452</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1178,55 +1178,665 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.9999845529025807</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1.544709741934352E-05</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>73.68258451606111</v>
+      </c>
+      <c r="AD6">
+        <v>-0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>-0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0.9999845529025807</v>
+      </c>
+      <c r="AI6">
+        <v>0.2046738458779475</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>117.7529941848681</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>129.2696925782973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>28.6033530545694</v>
+      </c>
+      <c r="F7">
+        <v>50.2545565194721</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>48.50196164596043</v>
+      </c>
+      <c r="I7">
+        <v>142.6528283704718</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>14.3016765272847</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.6033530545694</v>
+      </c>
+      <c r="P7">
+        <v>142.6528283704718</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>0.3</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0.1000031666666667</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0.8999968333333334</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>19</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>19</v>
-      </c>
-      <c r="AI6">
-        <v>0.05277777777777776</v>
-      </c>
-      <c r="AJ6">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>66.49853252574516</v>
+      </c>
+      <c r="AA7">
+        <v>2.653018617363439E-05</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>-0</v>
       </c>
-      <c r="AK6">
-        <v>80.67996037844367</v>
-      </c>
-      <c r="AL6">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>66.49853252574516</v>
+      </c>
+      <c r="AH7">
+        <v>0.9999734698138264</v>
+      </c>
+      <c r="AI7">
+        <v>0.1847181459048476</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>62.80363817324513</v>
+      </c>
+      <c r="AM7">
         <v>2</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>77.21554918120285</v>
+      <c r="AN7">
+        <v>50.43927466537695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100.6937895111742</v>
+      </c>
+      <c r="F8">
+        <v>92.63828635028027</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>51.35383265069885</v>
+      </c>
+      <c r="I8">
+        <v>151.0406842667613</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>45.31220528002839</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100.6937895111742</v>
+      </c>
+      <c r="P8">
+        <v>151.0406842667613</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.3</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>2.653018617363439E-05</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>-0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.9999734698138264</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>96.66603793072724</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AN8">
+        <v>92.63828635028027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>122.9626083453766</v>
+      </c>
+      <c r="F9">
+        <v>113.1255996777465</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>64.55536938132272</v>
+      </c>
+      <c r="I9">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>54.1035476719657</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>122.9626083453766</v>
+      </c>
+      <c r="P9">
+        <v>184.4439125180649</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.3</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>2.653018617363439E-05</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>-0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.9999734698138264</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>118.6589170532884</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>113.1255996777465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>73.59679184136345</v>
+      </c>
+      <c r="E10">
+        <v>217.7285845022828</v>
+      </c>
+      <c r="F10">
+        <v>241.5245011732637</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>107.77564932863</v>
+      </c>
+      <c r="I10">
+        <v>326.5928767534242</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>119.443404300895</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>291.3253763436463</v>
+      </c>
+      <c r="P10">
+        <v>326.5928767534242</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.0416667</v>
+      </c>
+      <c r="V10">
+        <v>0.0833334</v>
+      </c>
+      <c r="W10">
+        <v>0.0833334</v>
+      </c>
+      <c r="X10">
+        <v>0.9999611897929529</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>3.881020704719496E-05</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>73.68012524136346</v>
+      </c>
+      <c r="AD10">
+        <v>-0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>-0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.9999611897929528</v>
+      </c>
+      <c r="AI10">
+        <v>0.2046670145593429</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>227.219053629525</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>241.7708348878231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>273.7825087059377</v>
+      </c>
+      <c r="F11">
+        <v>275.9385807963816</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>199.2581108717169</v>
+      </c>
+      <c r="I11">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>128.6777790917907</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>273.7825087059377</v>
+      </c>
+      <c r="P11">
+        <v>510.9182330044023</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.3333336</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.1666668</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.3333336</v>
+      </c>
+      <c r="X11">
+        <v>0.3</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>66.49631303033053</v>
+      </c>
+      <c r="AA11">
+        <v>4.989292588558339E-05</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>-0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>66.49631303033053</v>
+      </c>
+      <c r="AH11">
+        <v>0.9999501070741145</v>
+      </c>
+      <c r="AI11">
+        <v>0.184711980639807</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>327.9358899635076</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>276.2899595770214</v>
       </c>
     </row>
   </sheetData>
